--- a/src/aspnet-core 7.0/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/FileAttachment.xlsx
+++ b/src/aspnet-core 7.0/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/FileAttachment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duong\Projects\Hau\KNTC\Code\PostgreSQL\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duong\Projects\Hau\KNTC\Code\PostgreSQL\src\aspnet-core 7.0\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$16:$G$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,9 +82,6 @@
     <t>Từ khóa:</t>
   </si>
   <si>
-    <t>DANH SÁCH HỒ SƠ GẮN KỀM</t>
-  </si>
-  <si>
     <t>Họ và tên người KN/TC:</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>---------------</t>
+  </si>
+  <si>
+    <t>DANH SÁCH HỒ SƠ GẮN KÈM</t>
   </si>
 </sst>
 </file>
@@ -213,6 +213,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -220,9 +223,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -558,50 +558,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
@@ -629,7 +629,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -637,7 +637,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
